--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neonlearn/Desktop/excel-tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00 Py\git\aa\excel-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08FF6AD5-09A5-5D42-9042-8021EFE97269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA67D07A-2E8B-49C0-9231-E4ED6A101354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7D450602-4BCB-2B42-B6CF-C54D22C615B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{7D450602-4BCB-2B42-B6CF-C54D22C615B7}"/>
   </bookViews>
   <sheets>
     <sheet name="NeonlearnTuts" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="cars" localSheetId="6">Cars!$A$1:$N$66</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{847E0ECA-A177-8544-BF6C-5ABA938A0D3E}" name="cars" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/neonlearn/Desktop/excel-tutorial/cars.txt" tab="0" comma="1">
+    <textPr sourceFile="/Users/neonlearn/Desktop/excel-tutorial/cars.txt" tab="0" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -658,9 +659,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,13 +681,6 @@
       <sz val="12"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -753,18 +747,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -782,8 +770,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -935,6 +927,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C6E8-48F7-BEF7-8B7CDEDB0F7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -950,6 +947,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C6E8-48F7-BEF7-8B7CDEDB0F7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -965,6 +967,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C6E8-48F7-BEF7-8B7CDEDB0F7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -980,6 +987,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C6E8-48F7-BEF7-8B7CDEDB0F7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -995,6 +1007,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C6E8-48F7-BEF7-8B7CDEDB0F7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4171,28 +4188,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5E7D69-E3E3-334A-ADAB-B299CBD55710}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="163" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="4" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4248,7 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <f xml:space="preserve"> (C5 * D5) / 60</f>
         <v>7.5</v>
       </c>
@@ -4241,13 +4258,13 @@
       <c r="G5">
         <v>22</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f xml:space="preserve"> F5 * G5</f>
         <v>220</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4260,8 +4277,8 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <f t="shared" ref="E6:E9" si="0" xml:space="preserve"> (C6 * D6) / 60</f>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E7" si="0" xml:space="preserve"> (C6 * D6) / 60</f>
         <v>4.166666666666667</v>
       </c>
       <c r="F6" s="1">
@@ -4270,13 +4287,13 @@
       <c r="G6">
         <v>15</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f xml:space="preserve"> F6 * G6</f>
         <v>225</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4306,7 @@
       <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4299,12 +4316,12 @@
       <c r="G7">
         <v>20</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f xml:space="preserve"> F7 * G7</f>
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4317,7 +4334,7 @@
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f xml:space="preserve"> (C8 * D8) / 60</f>
         <v>16.666666666666668</v>
       </c>
@@ -4327,12 +4344,12 @@
       <c r="G8">
         <v>12</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f xml:space="preserve"> F8 * G8</f>
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4345,7 +4362,7 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <f xml:space="preserve"> (C9 * D9) / 60</f>
         <v>1.1666666666666667</v>
       </c>
@@ -4355,25 +4372,25 @@
       <c r="G9">
         <v>6</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" ref="H9" si="1" xml:space="preserve"> F9 * G9</f>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f xml:space="preserve"> SUM(H5:H9)</f>
         <v>869</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f xml:space="preserve"> AVERAGE(H5:H9)</f>
         <v>173.8</v>
       </c>
@@ -4396,17 +4413,17 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -4426,112 +4443,112 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>0.09</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <f>B2 * C2</f>
         <v>900</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <f xml:space="preserve"> B2 + E2</f>
         <v>10900</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <f xml:space="preserve"> F2 / D2</f>
         <v>908.33333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>15000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.18</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <f>B3 * C3</f>
         <v>2700</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F5" si="0" xml:space="preserve"> B3 + E3</f>
         <v>17700</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G5" si="1" xml:space="preserve"> F3 / D3</f>
         <v>737.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>12000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.04</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f>B4 * C4</f>
         <v>480</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>12480</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>2080</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.05</v>
       </c>
       <c r="D5">
         <v>36</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E3:E5" si="2">B5 * C5</f>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5" si="2">B5 * C5</f>
         <v>5000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>2916.6666666666665</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4545,9 +4562,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -4570,7 +4587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4586,20 +4603,20 @@
       <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <f xml:space="preserve"> B2 * $F2</f>
         <v>20</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <f t="shared" ref="H2:I6" si="0" xml:space="preserve"> C2 * $F2</f>
         <v>16</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4615,20 +4632,20 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> B3 * $F3</f>
         <v>4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <f xml:space="preserve"> D3 * $F3</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4644,20 +4661,20 @@
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f xml:space="preserve"> D4 * $F4</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4673,20 +4690,20 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f xml:space="preserve"> B5 * $F5</f>
         <v>14</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f xml:space="preserve"> D5 * $F5</f>
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4702,32 +4719,32 @@
       <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f xml:space="preserve"> D6 * $F6</f>
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <f>SUM(G2:G6)</f>
         <v>85</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" ref="H7:I7" si="2">SUM(H2:H6)</f>
         <v>80</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
@@ -4749,19 +4766,19 @@
       <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.1640625" customWidth="1"/>
-    <col min="29" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.125" customWidth="1"/>
+    <col min="29" max="29" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="C2" t="s">
         <v>40</v>
       </c>
@@ -4781,1092 +4798,1092 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>44927</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f xml:space="preserve"> C3 + 7</f>
         <v>44934</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:G3" si="0" xml:space="preserve"> D3 + 7</f>
         <v>44941</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>44948</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>44955</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>44927</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <f>H3 + 7</f>
         <v>44934</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <f t="shared" ref="J3:L3" si="1">I3 + 7</f>
         <v>44941</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <f t="shared" si="1"/>
         <v>44948</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <f t="shared" si="1"/>
         <v>44955</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>44927</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <f>M3 + 7</f>
         <v>44934</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <f t="shared" ref="O3:Q3" si="2">N3 + 7</f>
         <v>44941</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <f t="shared" si="2"/>
         <v>44948</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <f t="shared" si="2"/>
         <v>44955</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="12">
         <v>44927</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="12">
         <f>R3 + 7</f>
         <v>44934</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="12">
         <f t="shared" ref="T3:V3" si="3">S3 + 7</f>
         <v>44941</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="12">
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="12">
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="14">
         <v>44927</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="14">
         <f>W3 + 7</f>
         <v>44934</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="14">
         <f t="shared" ref="Y3:AA3" si="4">X3 + 7</f>
         <v>44941</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="14">
         <f t="shared" si="4"/>
         <v>44948</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="14">
         <f t="shared" si="4"/>
         <v>44955</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>15.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>36</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>40</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>35</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>47</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>40</v>
       </c>
-      <c r="H4" s="11">
-        <f>IF(C4&gt;40, C4-40, 0)</f>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H9" si="5">IF(C4&gt;40, C4-40, 0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:L9" si="5">IF(D4&gt;40, D4-40, 0)</f>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:L9" si="6">IF(D4&gt;40, D4-40, 0)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f xml:space="preserve"> $B4 * C4</f>
+        <v>558</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:Q9" si="7" xml:space="preserve"> $B4 * D4</f>
+        <v>620</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="7"/>
+        <v>542.5</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="7"/>
+        <v>728.5</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="7"/>
+        <v>620</v>
+      </c>
+      <c r="R4" s="13">
+        <f xml:space="preserve"> 0.5 * $B4 * H4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" ref="S4:V9" si="8" xml:space="preserve"> 0.5 * $B4 * I4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <f t="shared" si="8"/>
+        <v>54.25</v>
+      </c>
+      <c r="V4" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4:W9" si="9" xml:space="preserve"> M4 + R4</f>
+        <v>558</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4:AA9" si="10" xml:space="preserve"> N4 + S4</f>
+        <v>620</v>
+      </c>
+      <c r="Y4" s="15">
+        <f t="shared" si="10"/>
+        <v>542.5</v>
+      </c>
+      <c r="Z4" s="15">
+        <f t="shared" si="10"/>
+        <v>782.75</v>
+      </c>
+      <c r="AA4" s="15">
+        <f t="shared" si="10"/>
+        <v>620</v>
+      </c>
+      <c r="AC4" s="3">
+        <f xml:space="preserve"> SUM(W4:AA4)</f>
+        <v>3123.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7">
+        <v>40</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" ref="M5:M9" si="11" xml:space="preserve"> $B5 * C5</f>
+        <v>848.4</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="7"/>
+        <v>1010</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="7"/>
+        <v>787.8</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="7"/>
+        <v>585.79999999999995</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="7"/>
+        <v>808</v>
+      </c>
+      <c r="R5" s="13">
+        <f t="shared" ref="R5:R9" si="12" xml:space="preserve"> 0.5 * $B5 * H5</f>
+        <v>20.2</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="T5" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" si="9"/>
+        <v>868.6</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="10"/>
+        <v>1111</v>
+      </c>
+      <c r="Y5" s="15">
+        <f t="shared" si="10"/>
+        <v>787.8</v>
+      </c>
+      <c r="Z5" s="15">
+        <f t="shared" si="10"/>
+        <v>585.79999999999995</v>
+      </c>
+      <c r="AA5" s="15">
+        <f t="shared" si="10"/>
+        <v>808</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" ref="AC5:AC9" si="13" xml:space="preserve"> SUM(W5:AA5)</f>
+        <v>4161.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7">
+        <v>42</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K4" s="11">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="I6" s="9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="11"/>
+        <v>512</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="7"/>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="7"/>
+        <v>358.40000000000003</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="7"/>
+        <v>384</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="7"/>
+        <v>537.6</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="8"/>
+        <v>25.6</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="8"/>
+        <v>12.8</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="10"/>
+        <v>588.80000000000007</v>
+      </c>
+      <c r="Y6" s="15">
+        <f t="shared" si="10"/>
+        <v>358.40000000000003</v>
+      </c>
+      <c r="Z6" s="15">
+        <f t="shared" si="10"/>
+        <v>384</v>
+      </c>
+      <c r="AA6" s="15">
+        <f t="shared" si="10"/>
+        <v>550.4</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="13"/>
+        <v>2393.6000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M4" s="13">
-        <f xml:space="preserve"> $B4 * C4</f>
-        <v>558</v>
-      </c>
-      <c r="N4" s="13">
-        <f t="shared" ref="N4:Q9" si="6" xml:space="preserve"> $B4 * D4</f>
-        <v>620</v>
-      </c>
-      <c r="O4" s="13">
+      <c r="I7" s="9">
         <f t="shared" si="6"/>
-        <v>542.5</v>
-      </c>
-      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" si="6"/>
-        <v>728.5</v>
-      </c>
-      <c r="Q4" s="13">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="6"/>
-        <v>620</v>
-      </c>
-      <c r="R4" s="15">
-        <f xml:space="preserve"> 0.5 * $B4 * H4</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S4" s="15">
-        <f t="shared" ref="S4:V9" si="7" xml:space="preserve"> 0.5 * $B4 * I4</f>
+      <c r="M7" s="11">
+        <f t="shared" si="11"/>
+        <v>380</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="7"/>
+        <v>430</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T4" s="15">
+      <c r="S7" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="V7" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <f t="shared" si="9"/>
+        <v>380</v>
+      </c>
+      <c r="X7" s="15">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="Y7" s="15">
+        <f t="shared" si="10"/>
+        <v>460</v>
+      </c>
+      <c r="Z7" s="15">
+        <f t="shared" si="10"/>
+        <v>445</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="13"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="N8" s="11">
         <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="7"/>
+        <v>516</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="7"/>
+        <v>384</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U4" s="15">
-        <f t="shared" si="7"/>
-        <v>54.25</v>
-      </c>
-      <c r="V4" s="15">
-        <f t="shared" si="7"/>
+      <c r="S8" s="13">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W4" s="17">
-        <f xml:space="preserve"> M4 + R4</f>
-        <v>558</v>
-      </c>
-      <c r="X4" s="17">
-        <f t="shared" ref="X4:AA9" si="8" xml:space="preserve"> N4 + S4</f>
-        <v>620</v>
-      </c>
-      <c r="Y4" s="17">
+      <c r="T8" s="13">
         <f t="shared" si="8"/>
-        <v>542.5</v>
-      </c>
-      <c r="Z4" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
         <f t="shared" si="8"/>
-        <v>782.75</v>
-      </c>
-      <c r="AA4" s="17">
+        <v>18</v>
+      </c>
+      <c r="V8" s="13">
         <f t="shared" si="8"/>
-        <v>620</v>
-      </c>
-      <c r="AC4" s="5">
-        <f xml:space="preserve"> SUM(W4:AA4)</f>
-        <v>3123.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="Y8" s="15">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="Z8" s="15">
+        <f t="shared" si="10"/>
+        <v>534</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" si="10"/>
+        <v>384</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="13"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7">
         <v>44</v>
       </c>
-      <c r="B5" s="1">
-        <v>20.2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9">
-        <v>50</v>
-      </c>
-      <c r="E5" s="9">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9">
-        <v>29</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F9" s="7">
         <v>40</v>
       </c>
-      <c r="H5" s="11">
-        <f>IF(C5&gt;40, C5-40, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G9" s="7">
+        <v>36</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J5" s="11">
-        <f t="shared" si="5"/>
+      <c r="I9" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K5" s="11">
-        <f t="shared" si="5"/>
+      <c r="J9" s="9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L5" s="11">
-        <f t="shared" si="5"/>
+      <c r="L9" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M5" s="13">
-        <f t="shared" ref="M5:M9" si="9" xml:space="preserve"> $B5 * C5</f>
-        <v>848.4</v>
-      </c>
-      <c r="N5" s="13">
-        <f t="shared" si="6"/>
-        <v>1010</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" si="6"/>
-        <v>787.8</v>
-      </c>
-      <c r="P5" s="13">
-        <f t="shared" si="6"/>
-        <v>585.79999999999995</v>
-      </c>
-      <c r="Q5" s="13">
-        <f t="shared" si="6"/>
-        <v>808</v>
-      </c>
-      <c r="R5" s="15">
-        <f t="shared" ref="R5:R9" si="10" xml:space="preserve"> 0.5 * $B5 * H5</f>
-        <v>20.2</v>
-      </c>
-      <c r="S5" s="15">
+      <c r="M9" s="11">
+        <f t="shared" si="11"/>
+        <v>735</v>
+      </c>
+      <c r="N9" s="11">
         <f t="shared" si="7"/>
-        <v>101</v>
-      </c>
-      <c r="T5" s="15">
+        <v>485.09999999999997</v>
+      </c>
+      <c r="O9" s="11">
         <f t="shared" si="7"/>
+        <v>646.79999999999995</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="7"/>
+        <v>588</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="7"/>
+        <v>529.19999999999993</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="12"/>
+        <v>73.5</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U5" s="15">
-        <f t="shared" si="7"/>
+      <c r="T9" s="13">
+        <f t="shared" si="8"/>
+        <v>29.4</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V5" s="15">
-        <f t="shared" si="7"/>
+      <c r="V9" s="13">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W5" s="17">
-        <f xml:space="preserve"> M5 + R5</f>
-        <v>868.6</v>
-      </c>
-      <c r="X5" s="17">
-        <f t="shared" si="8"/>
-        <v>1111</v>
-      </c>
-      <c r="Y5" s="17">
-        <f t="shared" si="8"/>
-        <v>787.8</v>
-      </c>
-      <c r="Z5" s="17">
-        <f t="shared" si="8"/>
-        <v>585.79999999999995</v>
-      </c>
-      <c r="AA5" s="17">
-        <f t="shared" si="8"/>
-        <v>808</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" ref="AC5:AC9" si="11" xml:space="preserve"> SUM(W5:AA5)</f>
-        <v>4161.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="C6" s="9">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9">
-        <v>44</v>
-      </c>
-      <c r="E6" s="9">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9">
-        <v>42</v>
-      </c>
-      <c r="H6" s="11">
-        <f>IF(C6&gt;40, C6-40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="W9" s="15">
         <f t="shared" si="9"/>
-        <v>512</v>
-      </c>
-      <c r="N6" s="13">
-        <f t="shared" si="6"/>
-        <v>563.20000000000005</v>
-      </c>
-      <c r="O6" s="13">
-        <f t="shared" si="6"/>
-        <v>358.40000000000003</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" si="6"/>
-        <v>384</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" si="6"/>
-        <v>537.6</v>
-      </c>
-      <c r="R6" s="15">
+        <v>808.5</v>
+      </c>
+      <c r="X9" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <f t="shared" si="7"/>
-        <v>25.6</v>
-      </c>
-      <c r="T6" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
-        <f t="shared" si="7"/>
-        <v>12.8</v>
-      </c>
-      <c r="W6" s="17">
-        <f xml:space="preserve"> M6 + R6</f>
-        <v>512</v>
-      </c>
-      <c r="X6" s="17">
-        <f t="shared" si="8"/>
-        <v>588.80000000000007</v>
-      </c>
-      <c r="Y6" s="17">
-        <f t="shared" si="8"/>
-        <v>358.40000000000003</v>
-      </c>
-      <c r="Z6" s="17">
-        <f t="shared" si="8"/>
-        <v>384</v>
-      </c>
-      <c r="AA6" s="17">
-        <f t="shared" si="8"/>
-        <v>550.4</v>
-      </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="11"/>
-        <v>2393.6000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9">
-        <v>38</v>
-      </c>
-      <c r="D7" s="9">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9">
-        <v>44</v>
-      </c>
-      <c r="F7" s="9">
-        <v>43</v>
-      </c>
-      <c r="G7" s="9">
-        <v>40</v>
-      </c>
-      <c r="H7" s="11">
-        <f>IF(C7&gt;40, C7-40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="9"/>
-        <v>380</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="6"/>
-        <v>430</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="R7" s="15">
+        <v>485.09999999999997</v>
+      </c>
+      <c r="Y9" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="U7" s="15">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="V7" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="17">
-        <f xml:space="preserve"> M7 + R7</f>
-        <v>380</v>
-      </c>
-      <c r="X7" s="17">
-        <f t="shared" si="8"/>
-        <v>270</v>
-      </c>
-      <c r="Y7" s="17">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-      <c r="Z7" s="17">
-        <f t="shared" si="8"/>
-        <v>445</v>
-      </c>
-      <c r="AA7" s="17">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="AC7" s="5">
-        <f t="shared" si="11"/>
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9">
-        <v>35</v>
-      </c>
-      <c r="F8" s="9">
-        <v>43</v>
-      </c>
-      <c r="G8" s="9">
-        <v>32</v>
-      </c>
-      <c r="H8" s="11">
-        <f>IF(C8&gt;40, C8-40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <f t="shared" si="9"/>
-        <v>360</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="O8" s="13">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="6"/>
-        <v>516</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="6"/>
-        <v>384</v>
-      </c>
-      <c r="R8" s="15">
+        <v>676.19999999999993</v>
+      </c>
+      <c r="Z9" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="V8" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="17">
-        <f xml:space="preserve"> M8 + R8</f>
-        <v>360</v>
-      </c>
-      <c r="X8" s="17">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="Y8" s="17">
-        <f t="shared" si="8"/>
-        <v>420</v>
-      </c>
-      <c r="Z8" s="17">
-        <f t="shared" si="8"/>
-        <v>534</v>
-      </c>
-      <c r="AA8" s="17">
-        <f t="shared" si="8"/>
-        <v>384</v>
-      </c>
-      <c r="AC8" s="5">
-        <f t="shared" si="11"/>
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>50</v>
-      </c>
-      <c r="D9" s="9">
-        <v>33</v>
-      </c>
-      <c r="E9" s="9">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="9">
-        <v>36</v>
-      </c>
-      <c r="H9" s="11">
-        <f>IF(C9&gt;40, C9-40, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <f t="shared" si="9"/>
-        <v>735</v>
-      </c>
-      <c r="N9" s="13">
-        <f t="shared" si="6"/>
-        <v>485.09999999999997</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" si="6"/>
-        <v>646.79999999999995</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="6"/>
         <v>588</v>
       </c>
-      <c r="Q9" s="13">
-        <f t="shared" si="6"/>
+      <c r="AA9" s="15">
+        <f t="shared" si="10"/>
         <v>529.19999999999993</v>
       </c>
-      <c r="R9" s="15">
-        <f t="shared" si="10"/>
-        <v>73.5</v>
-      </c>
-      <c r="S9" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
-        <f t="shared" si="7"/>
-        <v>29.4</v>
-      </c>
-      <c r="U9" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="17">
-        <f xml:space="preserve"> M9 + R9</f>
-        <v>808.5</v>
-      </c>
-      <c r="X9" s="17">
-        <f t="shared" si="8"/>
-        <v>485.09999999999997</v>
-      </c>
-      <c r="Y9" s="17">
-        <f t="shared" si="8"/>
-        <v>676.19999999999993</v>
-      </c>
-      <c r="Z9" s="17">
-        <f t="shared" si="8"/>
-        <v>588</v>
-      </c>
-      <c r="AA9" s="17">
-        <f t="shared" si="8"/>
-        <v>529.19999999999993</v>
-      </c>
-      <c r="AC9" s="5">
-        <f t="shared" si="11"/>
+      <c r="AC9" s="3">
+        <f t="shared" si="13"/>
         <v>3086.9999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <f>MIN(B4:B9)</f>
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <f>MIN(C4:C9)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5">
-        <f t="shared" ref="M11:Q11" si="12">MIN(M4:M9)</f>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3">
+        <f t="shared" ref="M11:Q11" si="14">MIN(M4:M9)</f>
         <v>360</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="12"/>
+      <c r="N11" s="3">
+        <f t="shared" si="14"/>
         <v>270</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="12"/>
+      <c r="O11" s="3">
+        <f t="shared" si="14"/>
         <v>358.40000000000003</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" si="12"/>
+      <c r="P11" s="3">
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="12"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
-      <c r="R11" s="5">
-        <f t="shared" ref="R11:AA11" si="13">MIN(R4:R9)</f>
+      <c r="R11" s="3">
+        <f t="shared" ref="R11:AA11" si="15">MIN(R4:R9)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="5">
-        <f t="shared" si="13"/>
+      <c r="S11" s="3">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T11" s="5">
-        <f t="shared" si="13"/>
+      <c r="T11" s="3">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" si="13"/>
+      <c r="U11" s="3">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" si="13"/>
+      <c r="V11" s="3">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W11" s="5">
-        <f t="shared" si="13"/>
+      <c r="W11" s="3">
+        <f t="shared" si="15"/>
         <v>360</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" si="13"/>
+      <c r="X11" s="3">
+        <f t="shared" si="15"/>
         <v>270</v>
       </c>
-      <c r="Y11" s="5">
-        <f t="shared" si="13"/>
+      <c r="Y11" s="3">
+        <f t="shared" si="15"/>
         <v>358.40000000000003</v>
       </c>
-      <c r="Z11" s="5">
-        <f t="shared" si="13"/>
+      <c r="Z11" s="3">
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
-      <c r="AA11" s="5">
-        <f t="shared" si="13"/>
+      <c r="AA11" s="3">
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
-      <c r="AC11" s="5">
-        <f t="shared" ref="AC11" si="14">MIN(AC4:AC9)</f>
+      <c r="AC11" s="3">
+        <f t="shared" ref="AC11" si="16">MIN(AC4:AC9)</f>
         <v>1955</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <f>MAX(B4:B9)</f>
         <v>20.2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <f>MAX(C4:C9)</f>
         <v>50</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5">
-        <f t="shared" ref="M12:Q12" si="15">MAX(M4:M9)</f>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12:Q12" si="17">MAX(M4:M9)</f>
         <v>848.4</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="15"/>
+      <c r="N12" s="3">
+        <f t="shared" si="17"/>
         <v>1010</v>
       </c>
-      <c r="O12" s="5">
-        <f t="shared" si="15"/>
+      <c r="O12" s="3">
+        <f t="shared" si="17"/>
         <v>787.8</v>
       </c>
-      <c r="P12" s="5">
-        <f t="shared" si="15"/>
+      <c r="P12" s="3">
+        <f t="shared" si="17"/>
         <v>728.5</v>
       </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="15"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="17"/>
         <v>808</v>
       </c>
-      <c r="R12" s="5">
-        <f t="shared" ref="R12:AA12" si="16">MAX(R4:R9)</f>
+      <c r="R12" s="3">
+        <f t="shared" ref="R12:Z12" si="18">MAX(R4:R9)</f>
         <v>73.5</v>
       </c>
-      <c r="S12" s="5">
-        <f t="shared" si="16"/>
+      <c r="S12" s="3">
+        <f t="shared" si="18"/>
         <v>101</v>
       </c>
-      <c r="T12" s="5">
-        <f t="shared" si="16"/>
+      <c r="T12" s="3">
+        <f t="shared" si="18"/>
         <v>29.4</v>
       </c>
-      <c r="U12" s="5">
-        <f t="shared" si="16"/>
+      <c r="U12" s="3">
+        <f t="shared" si="18"/>
         <v>54.25</v>
       </c>
-      <c r="V12" s="5">
-        <f t="shared" si="16"/>
+      <c r="V12" s="3">
+        <f t="shared" si="18"/>
         <v>12.8</v>
       </c>
-      <c r="W12" s="5">
-        <f t="shared" si="16"/>
+      <c r="W12" s="3">
+        <f t="shared" si="18"/>
         <v>868.6</v>
       </c>
-      <c r="X12" s="5">
-        <f t="shared" si="16"/>
+      <c r="X12" s="3">
+        <f t="shared" si="18"/>
         <v>1111</v>
       </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="16"/>
+      <c r="Y12" s="3">
+        <f t="shared" si="18"/>
         <v>787.8</v>
       </c>
-      <c r="Z12" s="5">
-        <f t="shared" si="16"/>
+      <c r="Z12" s="3">
+        <f t="shared" si="18"/>
         <v>782.75</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="3">
         <f>MAX(AA4:AA9)</f>
         <v>808</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="3">
         <f>MAX(AC4:AC9)</f>
         <v>4161.2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <f>AVERAGE(B4:B9)</f>
         <v>14.200000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <f>AVERAGE(C4:C9)</f>
         <v>39.333333333333336</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5">
-        <f t="shared" ref="M13:Q13" si="17">AVERAGE(M4:M9)</f>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3">
+        <f t="shared" ref="M13:Q13" si="19">AVERAGE(M4:M9)</f>
         <v>565.56666666666672</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="17"/>
+      <c r="N13" s="3">
+        <f t="shared" si="19"/>
         <v>541.38333333333333</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="17"/>
+      <c r="O13" s="3">
+        <f t="shared" si="19"/>
         <v>532.58333333333337</v>
       </c>
-      <c r="P13" s="5">
-        <f t="shared" si="17"/>
+      <c r="P13" s="3">
+        <f t="shared" si="19"/>
         <v>538.7166666666667</v>
       </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="17"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="19"/>
         <v>546.46666666666658</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="3">
         <f>AVERAGE(R4:R9)</f>
         <v>15.616666666666667</v>
       </c>
-      <c r="S13" s="5">
-        <f t="shared" ref="S13:AA13" si="18">AVERAGE(S4:S9)</f>
+      <c r="S13" s="3">
+        <f t="shared" ref="S13:AA13" si="20">AVERAGE(S4:S9)</f>
         <v>21.099999999999998</v>
       </c>
-      <c r="T13" s="5">
-        <f t="shared" si="18"/>
+      <c r="T13" s="3">
+        <f t="shared" si="20"/>
         <v>8.2333333333333325</v>
       </c>
-      <c r="U13" s="5">
-        <f t="shared" si="18"/>
+      <c r="U13" s="3">
+        <f t="shared" si="20"/>
         <v>14.541666666666666</v>
       </c>
-      <c r="V13" s="5">
-        <f t="shared" si="18"/>
+      <c r="V13" s="3">
+        <f t="shared" si="20"/>
         <v>2.1333333333333333</v>
       </c>
-      <c r="W13" s="5">
-        <f t="shared" si="18"/>
+      <c r="W13" s="3">
+        <f t="shared" si="20"/>
         <v>581.18333333333328</v>
       </c>
-      <c r="X13" s="5">
-        <f t="shared" si="18"/>
+      <c r="X13" s="3">
+        <f t="shared" si="20"/>
         <v>562.48333333333335</v>
       </c>
-      <c r="Y13" s="5">
-        <f t="shared" si="18"/>
+      <c r="Y13" s="3">
+        <f t="shared" si="20"/>
         <v>540.81666666666661</v>
       </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="18"/>
+      <c r="Z13" s="3">
+        <f t="shared" si="20"/>
         <v>553.25833333333333</v>
       </c>
-      <c r="AA13" s="5">
-        <f t="shared" si="18"/>
+      <c r="AA13" s="3">
+        <f t="shared" si="20"/>
         <v>548.6</v>
       </c>
-      <c r="AC13" s="5">
-        <f t="shared" ref="AC13" si="19">AVERAGE(AC4:AC9)</f>
+      <c r="AC13" s="3">
+        <f t="shared" ref="AC13" si="21">AVERAGE(AC4:AC9)</f>
         <v>2786.3416666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <f>SUM(B4:B9)</f>
         <v>85.2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <f>SUM(C4:C9)</f>
         <v>236</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5">
-        <f t="shared" ref="M14:Q14" si="20">SUM(M4:M9)</f>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3">
+        <f t="shared" ref="M14:Q14" si="22">SUM(M4:M9)</f>
         <v>3393.4</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="20"/>
+      <c r="N14" s="3">
+        <f t="shared" si="22"/>
         <v>3248.2999999999997</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="20"/>
+      <c r="O14" s="3">
+        <f t="shared" si="22"/>
         <v>3195.5</v>
       </c>
-      <c r="P14" s="5">
-        <f t="shared" si="20"/>
+      <c r="P14" s="3">
+        <f t="shared" si="22"/>
         <v>3232.3</v>
       </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="20"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="22"/>
         <v>3278.7999999999997</v>
       </c>
-      <c r="R14" s="5">
-        <f t="shared" ref="R14:AA14" si="21">SUM(R4:R9)</f>
+      <c r="R14" s="3">
+        <f t="shared" ref="R14:AA14" si="23">SUM(R4:R9)</f>
         <v>93.7</v>
       </c>
-      <c r="S14" s="5">
-        <f t="shared" si="21"/>
+      <c r="S14" s="3">
+        <f t="shared" si="23"/>
         <v>126.6</v>
       </c>
-      <c r="T14" s="5">
-        <f t="shared" si="21"/>
+      <c r="T14" s="3">
+        <f t="shared" si="23"/>
         <v>49.4</v>
       </c>
-      <c r="U14" s="5">
-        <f t="shared" si="21"/>
+      <c r="U14" s="3">
+        <f t="shared" si="23"/>
         <v>87.25</v>
       </c>
-      <c r="V14" s="5">
-        <f t="shared" si="21"/>
+      <c r="V14" s="3">
+        <f t="shared" si="23"/>
         <v>12.8</v>
       </c>
-      <c r="W14" s="5">
-        <f t="shared" si="21"/>
+      <c r="W14" s="3">
+        <f t="shared" si="23"/>
         <v>3487.1</v>
       </c>
-      <c r="X14" s="5">
-        <f t="shared" si="21"/>
+      <c r="X14" s="3">
+        <f t="shared" si="23"/>
         <v>3374.9</v>
       </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="21"/>
+      <c r="Y14" s="3">
+        <f t="shared" si="23"/>
         <v>3244.8999999999996</v>
       </c>
-      <c r="Z14" s="5">
-        <f t="shared" si="21"/>
+      <c r="Z14" s="3">
+        <f t="shared" si="23"/>
         <v>3319.55</v>
       </c>
-      <c r="AA14" s="5">
-        <f t="shared" si="21"/>
+      <c r="AA14" s="3">
+        <f t="shared" si="23"/>
         <v>3291.6</v>
       </c>
-      <c r="AC14" s="5">
-        <f t="shared" ref="AC14" si="22">SUM(AC4:AC9)</f>
+      <c r="AC14" s="3">
+        <f t="shared" ref="AC14" si="24">SUM(AC4:AC9)</f>
         <v>16718.05</v>
       </c>
     </row>
@@ -5884,51 +5901,51 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="133" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="130.5">
       <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -5945,12 +5962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5966,28 +5983,28 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f xml:space="preserve"> B4 / B$2</f>
         <v>0.9</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:J9" si="0" xml:space="preserve"> C4 / C$2</f>
         <v>0.75</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L4" s="7" t="b">
+      <c r="L4" s="5" t="b">
         <f>OR(G4&lt;0.5, H4 &lt; 0.5, I4 &lt; 0.5, J4 &lt; 0.5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6003,28 +6020,28 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f t="shared" ref="G5:G9" si="1" xml:space="preserve"> B5 / B$2</f>
         <v>1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L5" s="7" t="b">
+      <c r="L5" s="5" t="b">
         <f t="shared" ref="L5:L9" si="2">OR(G5&lt;0.5, H5 &lt; 0.5, I5 &lt; 0.5, J5 &lt; 0.5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6040,28 +6057,28 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="7" t="b">
+      <c r="L6" s="5" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6077,28 +6094,28 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L7" s="7" t="b">
+      <c r="L7" s="5" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -6114,28 +6131,28 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L8" s="7" t="b">
+      <c r="L8" s="5" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -6151,28 +6168,28 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9" s="7" t="b">
+      <c r="L9" s="5" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -6209,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -6246,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -6340,192 +6357,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77262E3C-2AC5-BD48-A9B5-EB0BDA094892}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="K2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>4</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>C$3*B4</f>
         <v>16</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>5</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <f>E$3*D4</f>
         <v>20</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>4</v>
       </c>
-      <c r="G4" s="22">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="18">
+        <f>G$3*F4</f>
+        <v>20</v>
+      </c>
+      <c r="H4" s="9">
         <v>4</v>
       </c>
-      <c r="I4" s="23">
-        <v>16</v>
+      <c r="I4" s="18">
+        <f>I$3*H4</f>
+        <v>8</v>
       </c>
       <c r="K4">
         <f>C4 + E4 + G4 + I4</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>C$3*B5</f>
         <v>16</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <f>E$3*D5</f>
         <v>16</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>5</v>
       </c>
-      <c r="G5" s="22">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="18">
+        <f>G$3*F5</f>
+        <v>25</v>
+      </c>
+      <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="23">
-        <v>16</v>
+      <c r="I5" s="18">
+        <f>I$3*H5</f>
+        <v>6</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K7" si="0">C5 + E5 + G5 + I5</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>C$3*B6</f>
         <v>20</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <f>E$3*D6</f>
         <v>8</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>3</v>
       </c>
-      <c r="G6" s="22">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="18">
+        <f>G$3*F6</f>
+        <v>15</v>
+      </c>
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="23">
-        <v>20</v>
+      <c r="I6" s="18">
+        <f>I$3*H6</f>
+        <v>2</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
-        <f t="shared" ref="C5:E7" si="1">C$3*B7</f>
+      <c r="C7" s="17">
+        <f t="shared" ref="C7:I7" si="1">C$3*B7</f>
         <v>16</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>3</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>2</v>
       </c>
-      <c r="G7" s="22">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="23">
-        <v>16</v>
+      <c r="I7" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6544,25 +6569,25 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -6606,39 +6631,39 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>190</v>
       </c>
       <c r="B2" t="str">
-        <f>LEFT(A2, 2)</f>
+        <f t="shared" ref="B2:B33" si="0">LEFT(A2, 2)</f>
         <v>HO</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, B$55:C$60, 2)</f>
+        <f t="shared" ref="C2:C33" si="1">VLOOKUP(B2, B$55:C$60, 2)</f>
         <v>Honda</v>
       </c>
       <c r="D2" t="str">
-        <f>MID(A2, 5, 3)</f>
+        <f t="shared" ref="D2:D33" si="2">MID(A2, 5, 3)</f>
         <v>ODY</v>
       </c>
       <c r="E2" t="str">
-        <f>VLOOKUP(D2, E$55:F$65, 2)</f>
+        <f t="shared" ref="E2:E33" si="3">VLOOKUP(D2, E$55:F$65, 2)</f>
         <v>Odyssey</v>
       </c>
       <c r="F2" t="str">
-        <f>MID(A2, 3, 2)</f>
+        <f t="shared" ref="F2:F33" si="4">MID(A2, 3, 2)</f>
         <v>10</v>
       </c>
       <c r="G2">
-        <f>IF(23-F2 &lt; 0, 100 - F2 + 23, 23 - F2)</f>
+        <f t="shared" ref="G2:G33" si="5">IF(23-F2 &lt; 0, 100 - F2 + 23, 23 - F2)</f>
         <v>13</v>
       </c>
       <c r="H2">
         <v>68658.899999999994</v>
       </c>
       <c r="I2">
-        <f>H2 / G2</f>
+        <f t="shared" ref="I2:I33" si="6">H2 / G2</f>
         <v>5281.4538461538459</v>
       </c>
       <c r="J2" t="s">
@@ -6651,47 +6676,47 @@
         <v>100000</v>
       </c>
       <c r="M2" t="str">
-        <f>IF(H2 &lt; L2, "Y", "N")</f>
+        <f t="shared" ref="M2:M33" si="7">IF(H2 &lt; L2, "Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
+        <f t="shared" ref="N2:N33" si="8">CONCATENATE(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
         <v>HO10ODYBLA040</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>121</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D3" t="str">
-        <f>MID(A3, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(D3, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F3" t="str">
-        <f>MID(A3, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="G3">
-        <f>IF(23-F3 &lt; 0, 100 - F3 + 23, 23 - F3)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="H3">
         <v>114660.6</v>
       </c>
       <c r="I3">
-        <f>H3 / G3</f>
+        <f t="shared" si="6"/>
         <v>4246.6888888888889</v>
       </c>
       <c r="J3" t="s">
@@ -6704,47 +6729,47 @@
         <v>100000</v>
       </c>
       <c r="M3" t="str">
-        <f>IF(H3 &lt; L3, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="N3" t="str">
-        <f>CONCATENATE(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
+        <f t="shared" si="8"/>
         <v>TY96CAMGRE020</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>150</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4, 2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D4" t="str">
-        <f>MID(A4, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAR</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(D4, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Caravan</v>
       </c>
       <c r="F4" t="str">
-        <f>MID(A4, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="G4">
-        <f>IF(23-F4 &lt; 0, 100 - F4 + 23, 23 - F4)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="H4">
         <v>72527.199999999997</v>
       </c>
       <c r="I4">
-        <f>H4 / G4</f>
+        <f t="shared" si="6"/>
         <v>3817.2210526315789</v>
       </c>
       <c r="J4" t="s">
@@ -6757,47 +6782,47 @@
         <v>75000</v>
       </c>
       <c r="M4" t="str">
-        <f>IF(H4 &lt; L4, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N4" t="str">
-        <f>CONCATENATE(B4,F4,D4,UPPER(LEFT(J4,3)),RIGHT(A4,3))</f>
+        <f t="shared" si="8"/>
         <v>CR04CARWHI047</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>125</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D5" t="str">
-        <f>MID(A5, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(D5, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F5" t="str">
-        <f>MID(A5, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="G5">
-        <f>IF(23-F5 &lt; 0, 100 - F5 + 23, 23 - F5)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H5">
         <v>85928</v>
       </c>
       <c r="I5">
-        <f>H5 / G5</f>
+        <f t="shared" si="6"/>
         <v>3736</v>
       </c>
       <c r="J5" t="s">
@@ -6810,47 +6835,47 @@
         <v>100000</v>
       </c>
       <c r="M5" t="str">
-        <f>IF(H5 &lt; L5, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N5" t="str">
-        <f>CONCATENATE(B5,F5,D5,UPPER(LEFT(J5,3)),RIGHT(A5,3))</f>
+        <f t="shared" si="8"/>
         <v>TY00CAMGRE022</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>123</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D6" t="str">
-        <f>MID(A6, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(D6, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F6" t="str">
-        <f>MID(A6, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="G6">
-        <f>IF(23-F6 &lt; 0, 100 - F6 + 23, 23 - F6)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="H6">
         <v>93382.6</v>
       </c>
       <c r="I6">
-        <f>H6 / G6</f>
+        <f t="shared" si="6"/>
         <v>3735.3040000000001</v>
       </c>
       <c r="J6" t="s">
@@ -6863,47 +6888,47 @@
         <v>100000</v>
       </c>
       <c r="M6" t="str">
-        <f>IF(H6 &lt; L6, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N6" t="str">
-        <f>CONCATENATE(B6,F6,D6,UPPER(LEFT(J6,3)),RIGHT(A6,3))</f>
+        <f t="shared" si="8"/>
         <v>TY98CAMBLA021</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>131</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D7" t="str">
-        <f>MID(A7, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>COR</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(D7, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Corola</v>
       </c>
       <c r="F7" t="str">
-        <f>MID(A7, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="G7">
-        <f>IF(23-F7 &lt; 0, 100 - F7 + 23, 23 - F7)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="H7">
         <v>73444.399999999994</v>
       </c>
       <c r="I7">
-        <f>H7 / G7</f>
+        <f t="shared" si="6"/>
         <v>3672.22</v>
       </c>
       <c r="J7" t="s">
@@ -6916,47 +6941,47 @@
         <v>100000</v>
       </c>
       <c r="M7" t="str">
-        <f>IF(H7 &lt; L7, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N7" t="str">
-        <f>CONCATENATE(B7,F7,D7,UPPER(LEFT(J7,3)),RIGHT(A7,3))</f>
+        <f t="shared" si="8"/>
         <v>TY03CORBLA026</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>119</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8, 2)</f>
+        <f t="shared" si="0"/>
         <v>GM</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>General Motors</v>
       </c>
       <c r="D8" t="str">
-        <f>MID(A8, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>SLV</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Silverado</v>
       </c>
       <c r="F8" t="str">
-        <f>MID(A8, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="G8">
-        <f>IF(23-F8 &lt; 0, 100 - F8 + 23, 23 - F8)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H8">
         <v>80685.8</v>
       </c>
       <c r="I8">
-        <f>H8 / G8</f>
+        <f t="shared" si="6"/>
         <v>3508.0782608695654</v>
       </c>
       <c r="J8" t="s">
@@ -6969,47 +6994,47 @@
         <v>100000</v>
       </c>
       <c r="M8" t="str">
-        <f>IF(H8 &lt; L8, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N8" t="str">
-        <f>CONCATENATE(B8,F8,D8,UPPER(LEFT(J8,3)),RIGHT(A8,3))</f>
+        <f t="shared" si="8"/>
         <v>GM00SLVBLU019</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>127</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D9" t="str">
-        <f>MID(A9, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F9" t="str">
-        <f>MID(A9, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="G9">
-        <f>IF(23-F9 &lt; 0, 100 - F9 + 23, 23 - F9)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H9">
         <v>48114.2</v>
       </c>
       <c r="I9">
-        <f>H9 / G9</f>
+        <f t="shared" si="6"/>
         <v>3436.7285714285713</v>
       </c>
       <c r="J9" t="s">
@@ -7022,47 +7047,47 @@
         <v>100000</v>
       </c>
       <c r="M9" t="str">
-        <f>IF(H9 &lt; L9, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N9" t="str">
-        <f>CONCATENATE(B9,F9,D9,UPPER(LEFT(J9,3)),RIGHT(A9,3))</f>
+        <f t="shared" si="8"/>
         <v>TY09CAMWHI024</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>135</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D10" t="str">
-        <f>MID(A10, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F10" t="str">
-        <f>MID(A10, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="G10">
-        <f>IF(23-F10 &lt; 0, 100 - F10 + 23, 23 - F10)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="H10">
         <v>82374</v>
       </c>
       <c r="I10">
-        <f>H10 / G10</f>
+        <f t="shared" si="6"/>
         <v>3432.25</v>
       </c>
       <c r="J10" t="s">
@@ -7075,47 +7100,47 @@
         <v>75000</v>
       </c>
       <c r="M10" t="str">
-        <f>IF(H10 &lt; L10, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="N10" t="str">
-        <f>CONCATENATE(B10,F10,D10,UPPER(LEFT(J10,3)),RIGHT(A10,3))</f>
+        <f t="shared" si="8"/>
         <v>HO99CIVWHI030</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>145</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11, 2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D11" t="str">
-        <f>MID(A11, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>PTC</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>PT Cruiser</v>
       </c>
       <c r="F11" t="str">
-        <f>MID(A11, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="G11">
-        <f>IF(23-F11 &lt; 0, 100 - F11 + 23, 23 - F11)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="H11">
         <v>64542</v>
       </c>
       <c r="I11">
-        <f>H11 / G11</f>
+        <f t="shared" si="6"/>
         <v>3396.9473684210525</v>
       </c>
       <c r="J11" t="s">
@@ -7128,47 +7153,47 @@
         <v>75000</v>
       </c>
       <c r="M11" t="str">
-        <f>IF(H11 &lt; L11, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N11" t="str">
-        <f>CONCATENATE(B11,F11,D11,UPPER(LEFT(J11,3)),RIGHT(A11,3))</f>
+        <f t="shared" si="8"/>
         <v>CR04PTCBLU042</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12, 2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D12" t="str">
-        <f>MID(A12, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAR</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Caravan</v>
       </c>
       <c r="F12" t="str">
-        <f>MID(A12, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="G12">
-        <f>IF(23-F12 &lt; 0, 100 - F12 + 23, 23 - F12)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H12">
         <v>77243.100000000006</v>
       </c>
       <c r="I12">
-        <f>H12 / G12</f>
+        <f t="shared" si="6"/>
         <v>3358.3956521739133</v>
       </c>
       <c r="J12" t="s">
@@ -7181,47 +7206,47 @@
         <v>75000</v>
       </c>
       <c r="M12" t="str">
-        <f>IF(H12 &lt; L12, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="N12" t="str">
-        <f>CONCATENATE(B12,F12,D12,UPPER(LEFT(J12,3)),RIGHT(A12,3))</f>
+        <f t="shared" si="8"/>
         <v>CR00CARBLA046</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>191</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D13" t="str">
-        <f>MID(A13, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F13" t="str">
-        <f>MID(A13, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="G13">
-        <f>IF(23-F13 &lt; 0, 100 - F13 + 23, 23 - F13)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="H13">
         <v>60389.5</v>
       </c>
       <c r="I13">
-        <f>H13 / G13</f>
+        <f t="shared" si="6"/>
         <v>3354.9722222222222</v>
       </c>
       <c r="J13" t="s">
@@ -7234,47 +7259,47 @@
         <v>100000</v>
       </c>
       <c r="M13" t="str">
-        <f>IF(H13 &lt; L13, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N13" t="str">
-        <f>CONCATENATE(B13,F13,D13,UPPER(LEFT(J13,3)),RIGHT(A13,3))</f>
+        <f t="shared" si="8"/>
         <v>HO05ODYWHI037</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>118</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14, 2)</f>
+        <f t="shared" si="0"/>
         <v>GM</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>General Motors</v>
       </c>
       <c r="D14" t="str">
-        <f>MID(A14, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>SLV</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Silverado</v>
       </c>
       <c r="F14" t="str">
-        <f>MID(A14, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="G14">
-        <f>IF(23-F14 &lt; 0, 100 - F14 + 23, 23 - F14)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="H14">
         <v>83162.7</v>
       </c>
       <c r="I14">
-        <f>H14 / G14</f>
+        <f t="shared" si="6"/>
         <v>3326.5079999999998</v>
       </c>
       <c r="J14" t="s">
@@ -7287,47 +7312,47 @@
         <v>100000</v>
       </c>
       <c r="M14" t="str">
-        <f>IF(H14 &lt; L14, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N14" t="str">
-        <f>CONCATENATE(B14,F14,D14,UPPER(LEFT(J14,3)),RIGHT(A14,3))</f>
+        <f t="shared" si="8"/>
         <v>GM98SLVBLA018</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>148</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15, 2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D15" t="str">
-        <f>MID(A15, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAR</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Caravan</v>
       </c>
       <c r="F15" t="str">
-        <f>MID(A15, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="G15">
-        <f>IF(23-F15 &lt; 0, 100 - F15 + 23, 23 - F15)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="H15">
         <v>79420.600000000006</v>
       </c>
       <c r="I15">
-        <f>H15 / G15</f>
+        <f t="shared" si="6"/>
         <v>3309.1916666666671</v>
       </c>
       <c r="J15" t="s">
@@ -7340,47 +7365,47 @@
         <v>75000</v>
       </c>
       <c r="M15" t="str">
-        <f>IF(H15 &lt; L15, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="N15" t="str">
-        <f>CONCATENATE(B15,F15,D15,UPPER(LEFT(J15,3)),RIGHT(A15,3))</f>
+        <f t="shared" si="8"/>
         <v>CR99CARGRE045</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D16" t="str">
-        <f>MID(A16, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAM</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Camrey</v>
       </c>
       <c r="F16" t="str">
-        <f>MID(A16, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="G16">
-        <f>IF(23-F16 &lt; 0, 100 - F16 + 23, 23 - F16)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="H16">
         <v>67829.100000000006</v>
       </c>
       <c r="I16">
-        <f>H16 / G16</f>
+        <f t="shared" si="6"/>
         <v>3229.957142857143</v>
       </c>
       <c r="J16" t="s">
@@ -7393,47 +7418,47 @@
         <v>100000</v>
       </c>
       <c r="M16" t="str">
-        <f>IF(H16 &lt; L16, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N16" t="str">
-        <f>CONCATENATE(B16,F16,D16,UPPER(LEFT(J16,3)),RIGHT(A16,3))</f>
+        <f t="shared" si="8"/>
         <v>TY02CAMBLA023</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>142</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D17" t="str">
-        <f>MID(A17, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F17" t="str">
-        <f>MID(A17, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="G17">
-        <f>IF(23-F17 &lt; 0, 100 - F17 + 23, 23 - F17)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H17">
         <v>50854.1</v>
       </c>
       <c r="I17">
-        <f>H17 / G17</f>
+        <f t="shared" si="6"/>
         <v>3178.3812499999999</v>
       </c>
       <c r="J17" t="s">
@@ -7446,47 +7471,47 @@
         <v>100000</v>
       </c>
       <c r="M17" t="str">
-        <f>IF(H17 &lt; L17, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N17" t="str">
-        <f>CONCATENATE(B17,F17,D17,UPPER(LEFT(J17,3)),RIGHT(A17,3))</f>
+        <f t="shared" si="8"/>
         <v>HO07ODYBLA038</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>136</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D18" t="str">
-        <f>MID(A18, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(D18, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F18" t="str">
-        <f>MID(A18, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="G18">
-        <f>IF(23-F18 &lt; 0, 100 - F18 + 23, 23 - F18)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="H18">
         <v>69891.899999999994</v>
       </c>
       <c r="I18">
-        <f>H18 / G18</f>
+        <f t="shared" si="6"/>
         <v>3176.9045454545453</v>
       </c>
       <c r="J18" t="s">
@@ -7499,47 +7524,47 @@
         <v>75000</v>
       </c>
       <c r="M18" t="str">
-        <f>IF(H18 &lt; L18, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N18" t="str">
-        <f>CONCATENATE(B18,F18,D18,UPPER(LEFT(J18,3)),RIGHT(A18,3))</f>
+        <f t="shared" si="8"/>
         <v>HO01CIVBLU031</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>99</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D19" t="str">
-        <f>MID(A19, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(D19, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F19" t="str">
-        <f>MID(A19, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="G19">
-        <f>IF(23-F19 &lt; 0, 100 - F19 + 23, 23 - F19)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="H19">
         <v>52229.5</v>
       </c>
       <c r="I19">
-        <f>H19 / G19</f>
+        <f t="shared" si="6"/>
         <v>3072.3235294117649</v>
       </c>
       <c r="J19" t="s">
@@ -7552,47 +7577,47 @@
         <v>75000</v>
       </c>
       <c r="M19" t="str">
-        <f>IF(H19 &lt; L19, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N19" t="str">
-        <f>CONCATENATE(B19,F19,D19,UPPER(LEFT(J19,3)),RIGHT(A19,3))</f>
+        <f t="shared" si="8"/>
         <v>FD06FCSGRE007</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>128</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D20" t="str">
-        <f>MID(A20, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>COR</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(D20, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Corola</v>
       </c>
       <c r="F20" t="str">
-        <f>MID(A20, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>02</v>
       </c>
       <c r="G20">
-        <f>IF(23-F20 &lt; 0, 100 - F20 + 23, 23 - F20)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="H20">
         <v>64467.4</v>
       </c>
       <c r="I20">
-        <f>H20 / G20</f>
+        <f t="shared" si="6"/>
         <v>3069.8761904761905</v>
       </c>
       <c r="J20" t="s">
@@ -7605,47 +7630,47 @@
         <v>100000</v>
       </c>
       <c r="M20" t="str">
-        <f>IF(H20 &lt; L20, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N20" t="str">
-        <f>CONCATENATE(B20,F20,D20,UPPER(LEFT(J20,3)),RIGHT(A20,3))</f>
+        <f t="shared" si="8"/>
         <v>TY02CORRED025</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>92</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D21" t="str">
-        <f>MID(A21, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>MTG</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
       <c r="F21" t="str">
-        <f>MID(A21, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="G21">
-        <f>IF(23-F21 &lt; 0, 100 - F21 + 23, 23 - F21)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="H21">
         <v>44946.5</v>
       </c>
       <c r="I21">
-        <f>H21 / G21</f>
+        <f t="shared" si="6"/>
         <v>2996.4333333333334</v>
       </c>
       <c r="J21" t="s">
@@ -7658,47 +7683,47 @@
         <v>50000</v>
       </c>
       <c r="M21" t="str">
-        <f>IF(H21 &lt; L21, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N21" t="str">
-        <f>CONCATENATE(B21,F21,D21,UPPER(LEFT(J21,3)),RIGHT(A21,3))</f>
+        <f t="shared" si="8"/>
         <v>FD08MTGGRE003</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>143</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D22" t="str">
-        <f>MID(A22, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>ODY</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Odyssey</v>
       </c>
       <c r="F22" t="str">
-        <f>MID(A22, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="G22">
-        <f>IF(23-F22 &lt; 0, 100 - F22 + 23, 23 - F22)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="H22">
         <v>42504.6</v>
       </c>
       <c r="I22">
-        <f>H22 / G22</f>
+        <f t="shared" si="6"/>
         <v>2833.64</v>
       </c>
       <c r="J22" t="s">
@@ -7711,47 +7736,47 @@
         <v>100000</v>
       </c>
       <c r="M22" t="str">
-        <f>IF(H22 &lt; L22, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N22" t="str">
-        <f>CONCATENATE(B22,F22,D22,UPPER(LEFT(J22,3)),RIGHT(A22,3))</f>
+        <f t="shared" si="8"/>
         <v>HO08ODYWHI039</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>151</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23, 2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D23" t="str">
-        <f>MID(A23, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CAR</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(D23, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Caravan</v>
       </c>
       <c r="F23" t="str">
-        <f>MID(A23, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="G23">
-        <f>IF(23-F23 &lt; 0, 100 - F23 + 23, 23 - F23)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="H23">
         <v>52699.4</v>
       </c>
       <c r="I23">
-        <f>H23 / G23</f>
+        <f t="shared" si="6"/>
         <v>2773.6526315789474</v>
       </c>
       <c r="J23" t="s">
@@ -7764,47 +7789,47 @@
         <v>75000</v>
       </c>
       <c r="M23" t="str">
-        <f>IF(H23 &lt; L23, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N23" t="str">
-        <f>CONCATENATE(B23,F23,D23,UPPER(LEFT(J23,3)),RIGHT(A23,3))</f>
+        <f t="shared" si="8"/>
         <v>CR04CARRED048</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>102</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D24" t="str">
-        <f>MID(A24, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(D24, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F24" t="str">
-        <f>MID(A24, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G24">
-        <f>IF(23-F24 &lt; 0, 100 - F24 + 23, 23 - F24)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H24">
         <v>27637.1</v>
       </c>
       <c r="I24">
-        <f>H24 / G24</f>
+        <f t="shared" si="6"/>
         <v>2763.71</v>
       </c>
       <c r="J24" t="s">
@@ -7817,47 +7842,47 @@
         <v>75000</v>
       </c>
       <c r="M24" t="str">
-        <f>IF(H24 &lt; L24, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N24" t="str">
-        <f>CONCATENATE(B24,F24,D24,UPPER(LEFT(J24,3)),RIGHT(A24,3))</f>
+        <f t="shared" si="8"/>
         <v>FD13FCSBLA009</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>103</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D25" t="str">
-        <f>MID(A25, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F25" t="str">
-        <f>MID(A25, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G25">
-        <f>IF(23-F25 &lt; 0, 100 - F25 + 23, 23 - F25)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H25">
         <v>27534.799999999999</v>
       </c>
       <c r="I25">
-        <f>H25 / G25</f>
+        <f t="shared" si="6"/>
         <v>2753.48</v>
       </c>
       <c r="J25" t="s">
@@ -7870,47 +7895,47 @@
         <v>75000</v>
       </c>
       <c r="M25" t="str">
-        <f>IF(H25 &lt; L25, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N25" t="str">
-        <f>CONCATENATE(B25,F25,D25,UPPER(LEFT(J25,3)),RIGHT(A25,3))</f>
+        <f t="shared" si="8"/>
         <v>FD13FCSWHI010</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>193</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D26" t="str">
-        <f>MID(A26, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F26" t="str">
-        <f>MID(A26, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="G26">
-        <f>IF(23-F26 &lt; 0, 100 - F26 + 23, 23 - F26)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="H26">
         <v>46311.4</v>
       </c>
       <c r="I26">
-        <f>H26 / G26</f>
+        <f t="shared" si="6"/>
         <v>2724.2000000000003</v>
       </c>
       <c r="J26" t="s">
@@ -7923,47 +7948,47 @@
         <v>75000</v>
       </c>
       <c r="M26" t="str">
-        <f>IF(H26 &lt; L26, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N26" t="str">
-        <f>CONCATENATE(B26,F26,D26,UPPER(LEFT(J26,3)),RIGHT(A26,3))</f>
+        <f t="shared" si="8"/>
         <v>FD06FCSGRE006</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>133</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27, 2)</f>
+        <f t="shared" si="0"/>
         <v>TY</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(B27, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Toyota</v>
       </c>
       <c r="D27" t="str">
-        <f>MID(A27, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>COR</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Corola</v>
       </c>
       <c r="F27" t="str">
-        <f>MID(A27, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G27">
-        <f>IF(23-F27 &lt; 0, 100 - F27 + 23, 23 - F27)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H27">
         <v>29601.9</v>
       </c>
       <c r="I27">
-        <f>H27 / G27</f>
+        <f t="shared" si="6"/>
         <v>2691.0818181818181</v>
       </c>
       <c r="J27" t="s">
@@ -7976,47 +8001,47 @@
         <v>100000</v>
       </c>
       <c r="M27" t="str">
-        <f>IF(H27 &lt; L27, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N27" t="str">
-        <f>CONCATENATE(B27,F27,D27,UPPER(LEFT(J27,3)),RIGHT(A27,3))</f>
+        <f t="shared" si="8"/>
         <v>TY12CORBLA028</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>89</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(B28, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D28" t="str">
-        <f>MID(A28, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>MTG</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
       <c r="F28" t="str">
-        <f>MID(A28, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="G28">
-        <f>IF(23-F28 &lt; 0, 100 - F28 + 23, 23 - F28)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="H28">
         <v>44974.8</v>
       </c>
       <c r="I28">
-        <f>H28 / G28</f>
+        <f t="shared" si="6"/>
         <v>2645.5764705882357</v>
       </c>
       <c r="J28" t="s">
@@ -8029,47 +8054,47 @@
         <v>50000</v>
       </c>
       <c r="M28" t="str">
-        <f>IF(H28 &lt; L28, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N28" t="str">
-        <f>CONCATENATE(B28,F28,D28,UPPER(LEFT(J28,3)),RIGHT(A28,3))</f>
+        <f t="shared" si="8"/>
         <v>FD06MTGWHI002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>146</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29, 2)</f>
+        <f t="shared" si="0"/>
         <v>CR</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(B29, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Chrysler</v>
       </c>
       <c r="D29" t="str">
-        <f>MID(A29, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>PTC</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>PT Cruiser</v>
       </c>
       <c r="F29" t="str">
-        <f>MID(A29, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="G29">
-        <f>IF(23-F29 &lt; 0, 100 - F29 + 23, 23 - F29)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H29">
         <v>42074.2</v>
       </c>
       <c r="I29">
-        <f>H29 / G29</f>
+        <f t="shared" si="6"/>
         <v>2629.6374999999998</v>
       </c>
       <c r="J29" t="s">
@@ -8082,47 +8107,47 @@
         <v>75000</v>
       </c>
       <c r="M29" t="str">
-        <f>IF(H29 &lt; L29, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N29" t="str">
-        <f>CONCATENATE(B29,F29,D29,UPPER(LEFT(J29,3)),RIGHT(A29,3))</f>
+        <f t="shared" si="8"/>
         <v>CR07PTCGRE043</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>138</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(B30, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D30" t="str">
-        <f>MID(A30, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F30" t="str">
-        <f>MID(A30, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G30">
-        <f>IF(23-F30 &lt; 0, 100 - F30 + 23, 23 - F30)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="H30">
         <v>33477.199999999997</v>
       </c>
       <c r="I30">
-        <f>H30 / G30</f>
+        <f t="shared" si="6"/>
         <v>2575.1692307692306</v>
       </c>
       <c r="J30" t="s">
@@ -8135,47 +8160,47 @@
         <v>75000</v>
       </c>
       <c r="M30" t="str">
-        <f>IF(H30 &lt; L30, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N30" t="str">
-        <f>CONCATENATE(B30,F30,D30,UPPER(LEFT(J30,3)),RIGHT(A30,3))</f>
+        <f t="shared" si="8"/>
         <v>HO10CIVBLA033</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>139</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31, 2)</f>
+        <f t="shared" si="0"/>
         <v>HO</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(B31, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Honda</v>
       </c>
       <c r="D31" t="str">
-        <f>MID(A31, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Civic</v>
       </c>
       <c r="F31" t="str">
-        <f>MID(A31, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G31">
-        <f>IF(23-F31 &lt; 0, 100 - F31 + 23, 23 - F31)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H31">
         <v>30555.3</v>
       </c>
       <c r="I31">
-        <f>H31 / G31</f>
+        <f t="shared" si="6"/>
         <v>2546.2750000000001</v>
       </c>
       <c r="J31" t="s">
@@ -8188,47 +8213,47 @@
         <v>75000</v>
       </c>
       <c r="M31" t="str">
-        <f>IF(H31 &lt; L31, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N31" t="str">
-        <f>CONCATENATE(B31,F31,D31,UPPER(LEFT(J31,3)),RIGHT(A31,3))</f>
+        <f t="shared" si="8"/>
         <v>HO11CIVBLA034</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>100</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(B32, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D32" t="str">
-        <f>MID(A32, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>FCS</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
       <c r="F32" t="str">
-        <f>MID(A32, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="G32">
-        <f>IF(23-F32 &lt; 0, 100 - F32 + 23, 23 - F32)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H32">
         <v>35137</v>
       </c>
       <c r="I32">
-        <f>H32 / G32</f>
+        <f t="shared" si="6"/>
         <v>2509.7857142857142</v>
       </c>
       <c r="J32" t="s">
@@ -8241,47 +8266,47 @@
         <v>75000</v>
       </c>
       <c r="M32" t="str">
-        <f>IF(H32 &lt; L32, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N32" t="str">
-        <f>CONCATENATE(B32,F32,D32,UPPER(LEFT(J32,3)),RIGHT(A32,3))</f>
+        <f t="shared" si="8"/>
         <v>FD09FCSBLA008</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33, 2)</f>
+        <f t="shared" si="0"/>
         <v>FD</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(B33, B$55:C$60, 2)</f>
+        <f t="shared" si="1"/>
         <v>Ford</v>
       </c>
       <c r="D33" t="str">
-        <f>MID(A33, 5, 3)</f>
+        <f t="shared" si="2"/>
         <v>MTG</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33, E$55:F$65, 2)</f>
+        <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
       <c r="F33" t="str">
-        <f>MID(A33, 3, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="G33">
-        <f>IF(23-F33 &lt; 0, 100 - F33 + 23, 23 - F33)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="H33">
         <v>37558.800000000003</v>
       </c>
       <c r="I33">
-        <f>H33 / G33</f>
+        <f t="shared" si="6"/>
         <v>2503.92</v>
       </c>
       <c r="J33" t="s">
@@ -8294,47 +8319,47 @@
         <v>50000</v>
       </c>
       <c r="M33" t="str">
-        <f>IF(H33 &lt; L33, "Y", "N")</f>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="N33" t="str">
-        <f>CONCATENATE(B33,F33,D33,UPPER(LEFT(J33,3)),RIGHT(A33,3))</f>
+        <f t="shared" si="8"/>
         <v>FD08MTGBLA004</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34, 2)</f>
+        <f t="shared" ref="B34:B53" si="9">LEFT(A34, 2)</f>
         <v>FD</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(B34, B$55:C$60, 2)</f>
+        <f t="shared" ref="C34:C53" si="10">VLOOKUP(B34, B$55:C$60, 2)</f>
         <v>Ford</v>
       </c>
       <c r="D34" t="str">
-        <f>MID(A34, 5, 3)</f>
+        <f t="shared" ref="D34:D53" si="11">MID(A34, 5, 3)</f>
         <v>MTG</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34, E$55:F$65, 2)</f>
+        <f t="shared" ref="E34:E53" si="12">VLOOKUP(D34, E$55:F$65, 2)</f>
         <v>Mustang</v>
       </c>
       <c r="F34" t="str">
-        <f>MID(A34, 3, 2)</f>
+        <f t="shared" ref="F34:F53" si="13">MID(A34, 3, 2)</f>
         <v>08</v>
       </c>
       <c r="G34">
-        <f>IF(23-F34 &lt; 0, 100 - F34 + 23, 23 - F34)</f>
+        <f t="shared" ref="G34:G53" si="14">IF(23-F34 &lt; 0, 100 - F34 + 23, 23 - F34)</f>
         <v>15</v>
       </c>
       <c r="H34">
         <v>36438.5</v>
       </c>
       <c r="I34">
-        <f>H34 / G34</f>
+        <f t="shared" ref="I34:I53" si="15">H34 / G34</f>
         <v>2429.2333333333331</v>
       </c>
       <c r="J34" t="s">
@@ -8347,47 +8372,47 @@
         <v>50000</v>
       </c>
       <c r="M34" t="str">
-        <f>IF(H34 &lt; L34, "Y", "N")</f>
+        <f t="shared" ref="M34:M53" si="16">IF(H34 &lt; L34, "Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N34" t="str">
-        <f>CONCATENATE(B34,F34,D34,UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
+        <f t="shared" ref="N34:N53" si="17">CONCATENATE(B34,F34,D34,UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
         <v>FD08MTGWHI005</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>152</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35, 2)</f>
+        <f t="shared" si="9"/>
         <v>HY</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(B35, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Hundai</v>
       </c>
       <c r="D35" t="str">
-        <f>MID(A35, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>ELA</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(D35, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Elantra</v>
       </c>
       <c r="F35" t="str">
-        <f>MID(A35, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G35">
-        <f>IF(23-F35 &lt; 0, 100 - F35 + 23, 23 - F35)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H35">
         <v>29102.3</v>
       </c>
       <c r="I35">
-        <f>H35 / G35</f>
+        <f t="shared" si="15"/>
         <v>2425.1916666666666</v>
       </c>
       <c r="J35" t="s">
@@ -8400,47 +8425,47 @@
         <v>100000</v>
       </c>
       <c r="M35" t="str">
-        <f>IF(H35 &lt; L35, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N35" t="str">
-        <f>CONCATENATE(B35,F35,D35,UPPER(LEFT(J35,3)),RIGHT(A35,3))</f>
+        <f t="shared" si="17"/>
         <v>HY11ELABLA049</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>116</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36, 2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(B36, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D36" t="str">
-        <f>MID(A36, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>SLV</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Silverado</v>
       </c>
       <c r="F36" t="str">
-        <f>MID(A36, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G36">
-        <f>IF(23-F36 &lt; 0, 100 - F36 + 23, 23 - F36)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H36">
         <v>31144.400000000001</v>
       </c>
       <c r="I36">
-        <f>H36 / G36</f>
+        <f t="shared" si="15"/>
         <v>2395.7230769230769</v>
       </c>
       <c r="J36" t="s">
@@ -8453,47 +8478,47 @@
         <v>100000</v>
       </c>
       <c r="M36" t="str">
-        <f>IF(H36 &lt; L36, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N36" t="str">
-        <f>CONCATENATE(B36,F36,D36,UPPER(LEFT(J36,3)),RIGHT(A36,3))</f>
+        <f t="shared" si="17"/>
         <v>GM10SLVBLA017</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>86</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37, 2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(B37, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D37" t="str">
-        <f>MID(A37, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>MTG</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Mustang</v>
       </c>
       <c r="F37" t="str">
-        <f>MID(A37, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>06</v>
       </c>
       <c r="G37">
-        <f>IF(23-F37 &lt; 0, 100 - F37 + 23, 23 - F37)</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="H37">
         <v>40326.800000000003</v>
       </c>
       <c r="I37">
-        <f>H37 / G37</f>
+        <f t="shared" si="15"/>
         <v>2372.1647058823532</v>
       </c>
       <c r="J37" t="s">
@@ -8506,47 +8531,47 @@
         <v>50000</v>
       </c>
       <c r="M37" t="str">
-        <f>IF(H37 &lt; L37, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N37" t="str">
-        <f>CONCATENATE(B37,F37,D37,UPPER(LEFT(J37,3)),RIGHT(A37,3))</f>
+        <f t="shared" si="17"/>
         <v>FD06MTGBLA001</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>147</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38, 2)</f>
+        <f t="shared" si="9"/>
         <v>CR</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(B38, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Chrysler</v>
       </c>
       <c r="D38" t="str">
-        <f>MID(A38, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>PTC</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>PT Cruiser</v>
       </c>
       <c r="F38" t="str">
-        <f>MID(A38, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G38">
-        <f>IF(23-F38 &lt; 0, 100 - F38 + 23, 23 - F38)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H38">
         <v>27394.2</v>
       </c>
       <c r="I38">
-        <f>H38 / G38</f>
+        <f t="shared" si="15"/>
         <v>2282.85</v>
       </c>
       <c r="J38" t="s">
@@ -8559,47 +8584,47 @@
         <v>75000</v>
       </c>
       <c r="M38" t="str">
-        <f>IF(H38 &lt; L38, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N38" t="str">
-        <f>CONCATENATE(B38,F38,D38,UPPER(LEFT(J38,3)),RIGHT(A38,3))</f>
+        <f t="shared" si="17"/>
         <v>CR11PTCBLA044</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>107</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39, 2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(B39, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D39" t="str">
-        <f>MID(A39, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>FCS</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(D39, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Focus</v>
       </c>
       <c r="F39" t="str">
-        <f>MID(A39, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="G39">
-        <f>IF(23-F39 &lt; 0, 100 - F39 + 23, 23 - F39)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H39">
         <v>22521.599999999999</v>
       </c>
       <c r="I39">
-        <f>H39 / G39</f>
+        <f t="shared" si="15"/>
         <v>2252.16</v>
       </c>
       <c r="J39" t="s">
@@ -8612,47 +8637,47 @@
         <v>75000</v>
       </c>
       <c r="M39" t="str">
-        <f>IF(H39 &lt; L39, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N39" t="str">
-        <f>CONCATENATE(B39,F39,D39,UPPER(LEFT(J39,3)),RIGHT(A39,3))</f>
+        <f t="shared" si="17"/>
         <v>FD13FCSBLA012</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>140</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40, 2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(B40, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D40" t="str">
-        <f>MID(A40, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CIV</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(D40, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Civic</v>
       </c>
       <c r="F40" t="str">
-        <f>MID(A40, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G40">
-        <f>IF(23-F40 &lt; 0, 100 - F40 + 23, 23 - F40)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H40">
         <v>24513.200000000001</v>
       </c>
       <c r="I40">
-        <f>H40 / G40</f>
+        <f t="shared" si="15"/>
         <v>2228.4727272727273</v>
       </c>
       <c r="J40" t="s">
@@ -8665,47 +8690,47 @@
         <v>75000</v>
       </c>
       <c r="M40" t="str">
-        <f>IF(H40 &lt; L40, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N40" t="str">
-        <f>CONCATENATE(B40,F40,D40,UPPER(LEFT(J40,3)),RIGHT(A40,3))</f>
+        <f t="shared" si="17"/>
         <v>HO12CIVBLA035</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>155</v>
       </c>
       <c r="B41" t="str">
-        <f>LEFT(A41, 2)</f>
+        <f t="shared" si="9"/>
         <v>HY</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(B41, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Hundai</v>
       </c>
       <c r="D41" t="str">
-        <f>MID(A41, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>ELA</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(D41, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Elantra</v>
       </c>
       <c r="F41" t="str">
-        <f>MID(A41, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="G41">
-        <f>IF(23-F41 &lt; 0, 100 - F41 + 23, 23 - F41)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H41">
         <v>22188.5</v>
       </c>
       <c r="I41">
-        <f>H41 / G41</f>
+        <f t="shared" si="15"/>
         <v>2218.85</v>
       </c>
       <c r="J41" t="s">
@@ -8718,47 +8743,47 @@
         <v>100000</v>
       </c>
       <c r="M41" t="str">
-        <f>IF(H41 &lt; L41, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N41" t="str">
-        <f>CONCATENATE(B41,F41,D41,UPPER(LEFT(J41,3)),RIGHT(A41,3))</f>
+        <f t="shared" si="17"/>
         <v>HY13ELABLU052</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>192</v>
       </c>
       <c r="B42" t="str">
-        <f>LEFT(A42, 2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(B42, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D42" t="str">
-        <f>MID(A42, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CMR</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(D42, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Camero</v>
       </c>
       <c r="F42" t="str">
-        <f>MID(A42, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>09</v>
       </c>
       <c r="G42">
-        <f>IF(23-F42 &lt; 0, 100 - F42 + 23, 23 - F42)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H42">
         <v>28464.799999999999</v>
       </c>
       <c r="I42">
-        <f>H42 / G42</f>
+        <f t="shared" si="15"/>
         <v>2033.2</v>
       </c>
       <c r="J42" t="s">
@@ -8771,47 +8796,47 @@
         <v>100000</v>
       </c>
       <c r="M42" t="str">
-        <f>IF(H42 &lt; L42, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N42" t="str">
-        <f>CONCATENATE(B42,F42,D42,UPPER(LEFT(J42,3)),RIGHT(A42,3))</f>
+        <f t="shared" si="17"/>
         <v>GM09CMRWHI014</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>153</v>
       </c>
       <c r="B43" t="str">
-        <f>LEFT(A43, 2)</f>
+        <f t="shared" si="9"/>
         <v>HY</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(B43, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Hundai</v>
       </c>
       <c r="D43" t="str">
-        <f>MID(A43, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>ELA</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(D43, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Elantra</v>
       </c>
       <c r="F43" t="str">
-        <f>MID(A43, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G43">
-        <f>IF(23-F43 &lt; 0, 100 - F43 + 23, 23 - F43)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H43">
         <v>22282</v>
       </c>
       <c r="I43">
-        <f>H43 / G43</f>
+        <f t="shared" si="15"/>
         <v>2025.6363636363637</v>
       </c>
       <c r="J43" t="s">
@@ -8824,47 +8849,47 @@
         <v>100000</v>
       </c>
       <c r="M43" t="str">
-        <f>IF(H43 &lt; L43, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N43" t="str">
-        <f>CONCATENATE(B43,F43,D43,UPPER(LEFT(J43,3)),RIGHT(A43,3))</f>
+        <f t="shared" si="17"/>
         <v>HY12ELABLU050</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>154</v>
       </c>
       <c r="B44" t="str">
-        <f>LEFT(A44, 2)</f>
+        <f t="shared" si="9"/>
         <v>HY</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(B44, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Hundai</v>
       </c>
       <c r="D44" t="str">
-        <f>MID(A44, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>ELA</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(D44, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Elantra</v>
       </c>
       <c r="F44" t="str">
-        <f>MID(A44, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="G44">
-        <f>IF(23-F44 &lt; 0, 100 - F44 + 23, 23 - F44)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H44">
         <v>20223.900000000001</v>
       </c>
       <c r="I44">
-        <f>H44 / G44</f>
+        <f t="shared" si="15"/>
         <v>2022.39</v>
       </c>
       <c r="J44" t="s">
@@ -8877,47 +8902,47 @@
         <v>100000</v>
       </c>
       <c r="M44" t="str">
-        <f>IF(H44 &lt; L44, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N44" t="str">
-        <f>CONCATENATE(B44,F44,D44,UPPER(LEFT(J44,3)),RIGHT(A44,3))</f>
+        <f t="shared" si="17"/>
         <v>HY13ELABLA051</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>134</v>
       </c>
       <c r="B45" t="str">
-        <f>LEFT(A45, 2)</f>
+        <f t="shared" si="9"/>
         <v>TY</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(B45, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Toyota</v>
       </c>
       <c r="D45" t="str">
-        <f>MID(A45, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CAM</v>
       </c>
       <c r="E45" t="str">
-        <f>VLOOKUP(D45, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Camrey</v>
       </c>
       <c r="F45" t="str">
-        <f>MID(A45, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G45">
-        <f>IF(23-F45 &lt; 0, 100 - F45 + 23, 23 - F45)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H45">
         <v>22128.2</v>
       </c>
       <c r="I45">
-        <f>H45 / G45</f>
+        <f t="shared" si="15"/>
         <v>2011.6545454545455</v>
       </c>
       <c r="J45" t="s">
@@ -8930,47 +8955,47 @@
         <v>100000</v>
       </c>
       <c r="M45" t="str">
-        <f>IF(H45 &lt; L45, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N45" t="str">
-        <f>CONCATENATE(B45,F45,D45,UPPER(LEFT(J45,3)),RIGHT(A45,3))</f>
+        <f t="shared" si="17"/>
         <v>TY12CAMBLU029</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>132</v>
       </c>
       <c r="B46" t="str">
-        <f>LEFT(A46, 2)</f>
+        <f t="shared" si="9"/>
         <v>TY</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(B46, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Toyota</v>
       </c>
       <c r="D46" t="str">
-        <f>MID(A46, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>COR</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(D46, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Corola</v>
       </c>
       <c r="F46" t="str">
-        <f>MID(A46, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G46">
-        <f>IF(23-F46 &lt; 0, 100 - F46 + 23, 23 - F46)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H46">
         <v>17556.3</v>
       </c>
       <c r="I46">
-        <f>H46 / G46</f>
+        <f t="shared" si="15"/>
         <v>1950.6999999999998</v>
       </c>
       <c r="J46" t="s">
@@ -8983,47 +9008,47 @@
         <v>100000</v>
       </c>
       <c r="M46" t="str">
-        <f>IF(H46 &lt; L46, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N46" t="str">
-        <f>CONCATENATE(B46,F46,D46,UPPER(LEFT(J46,3)),RIGHT(A46,3))</f>
+        <f t="shared" si="17"/>
         <v>TY14CORBLU027</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>112</v>
       </c>
       <c r="B47" t="str">
-        <f>LEFT(A47, 2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(B47, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D47" t="str">
-        <f>MID(A47, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CMR</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(D47, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Camero</v>
       </c>
       <c r="F47" t="str">
-        <f>MID(A47, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G47">
-        <f>IF(23-F47 &lt; 0, 100 - F47 + 23, 23 - F47)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H47">
         <v>19421.099999999999</v>
       </c>
       <c r="I47">
-        <f>H47 / G47</f>
+        <f t="shared" si="15"/>
         <v>1765.5545454545454</v>
       </c>
       <c r="J47" t="s">
@@ -9036,47 +9061,47 @@
         <v>100000</v>
       </c>
       <c r="M47" t="str">
-        <f>IF(H47 &lt; L47, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N47" t="str">
-        <f>CONCATENATE(B47,F47,D47,UPPER(LEFT(J47,3)),RIGHT(A47,3))</f>
+        <f t="shared" si="17"/>
         <v>GM12CMRBLA015</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>105</v>
       </c>
       <c r="B48" t="str">
-        <f>LEFT(A48, 2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(B48, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D48" t="str">
-        <f>MID(A48, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>FCS</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(D48, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Focus</v>
       </c>
       <c r="F48" t="str">
-        <f>MID(A48, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G48">
-        <f>IF(23-F48 &lt; 0, 100 - F48 + 23, 23 - F48)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H48">
         <v>19341.7</v>
       </c>
       <c r="I48">
-        <f>H48 / G48</f>
+        <f t="shared" si="15"/>
         <v>1758.3363636363638</v>
       </c>
       <c r="J48" t="s">
@@ -9089,47 +9114,47 @@
         <v>75000</v>
       </c>
       <c r="M48" t="str">
-        <f>IF(H48 &lt; L48, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N48" t="str">
-        <f>CONCATENATE(B48,F48,D48,UPPER(LEFT(J48,3)),RIGHT(A48,3))</f>
+        <f t="shared" si="17"/>
         <v>FD12FCSWHI011</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>137</v>
       </c>
       <c r="B49" t="str">
-        <f>LEFT(A49, 2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(B49, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D49" t="str">
-        <f>MID(A49, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CIV</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(D49, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Civic</v>
       </c>
       <c r="F49" t="str">
-        <f>MID(A49, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G49">
-        <f>IF(23-F49 &lt; 0, 100 - F49 + 23, 23 - F49)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H49">
         <v>22573</v>
       </c>
       <c r="I49">
-        <f>H49 / G49</f>
+        <f t="shared" si="15"/>
         <v>1736.3846153846155</v>
       </c>
       <c r="J49" t="s">
@@ -9142,47 +9167,47 @@
         <v>75000</v>
       </c>
       <c r="M49" t="str">
-        <f>IF(H49 &lt; L49, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N49" t="str">
-        <f>CONCATENATE(B49,F49,D49,UPPER(LEFT(J49,3)),RIGHT(A49,3))</f>
+        <f t="shared" si="17"/>
         <v>HO10CIVBLU032</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>114</v>
       </c>
       <c r="B50" t="str">
-        <f>LEFT(A50, 2)</f>
+        <f t="shared" si="9"/>
         <v>GM</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(B50, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>General Motors</v>
       </c>
       <c r="D50" t="str">
-        <f>MID(A50, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CMR</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(D50, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Camero</v>
       </c>
       <c r="F50" t="str">
-        <f>MID(A50, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G50">
-        <f>IF(23-F50 &lt; 0, 100 - F50 + 23, 23 - F50)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H50">
         <v>14289.6</v>
       </c>
       <c r="I50">
-        <f>H50 / G50</f>
+        <f t="shared" si="15"/>
         <v>1587.7333333333333</v>
       </c>
       <c r="J50" t="s">
@@ -9195,47 +9220,47 @@
         <v>100000</v>
       </c>
       <c r="M50" t="str">
-        <f>IF(H50 &lt; L50, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N50" t="str">
-        <f>CONCATENATE(B50,F50,D50,UPPER(LEFT(J50,3)),RIGHT(A50,3))</f>
+        <f t="shared" si="17"/>
         <v>GM14CMRWHI016</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>141</v>
       </c>
       <c r="B51" t="str">
-        <f>LEFT(A51, 2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(B51, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D51" t="str">
-        <f>MID(A51, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>CIV</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(D51, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Civic</v>
       </c>
       <c r="F51" t="str">
-        <f>MID(A51, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="G51">
-        <f>IF(23-F51 &lt; 0, 100 - F51 + 23, 23 - F51)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H51">
         <v>13867.6</v>
       </c>
       <c r="I51">
-        <f>H51 / G51</f>
+        <f t="shared" si="15"/>
         <v>1386.76</v>
       </c>
       <c r="J51" t="s">
@@ -9248,47 +9273,47 @@
         <v>75000</v>
       </c>
       <c r="M51" t="str">
-        <f>IF(H51 &lt; L51, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N51" t="str">
-        <f>CONCATENATE(B51,F51,D51,UPPER(LEFT(J51,3)),RIGHT(A51,3))</f>
+        <f t="shared" si="17"/>
         <v>HO13CIVBLA036</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>109</v>
       </c>
       <c r="B52" t="str">
-        <f>LEFT(A52, 2)</f>
+        <f t="shared" si="9"/>
         <v>FD</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(B52, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Ford</v>
       </c>
       <c r="D52" t="str">
-        <f>MID(A52, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>FCS</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(D52, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Focus</v>
       </c>
       <c r="F52" t="str">
-        <f>MID(A52, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="G52">
-        <f>IF(23-F52 &lt; 0, 100 - F52 + 23, 23 - F52)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H52">
         <v>13682.9</v>
       </c>
       <c r="I52">
-        <f>H52 / G52</f>
+        <f t="shared" si="15"/>
         <v>1368.29</v>
       </c>
       <c r="J52" t="s">
@@ -9301,47 +9326,47 @@
         <v>75000</v>
       </c>
       <c r="M52" t="str">
-        <f>IF(H52 &lt; L52, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N52" t="str">
-        <f>CONCATENATE(B52,F52,D52,UPPER(LEFT(J52,3)),RIGHT(A52,3))</f>
+        <f t="shared" si="17"/>
         <v>FD13FCSBLA013</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>144</v>
       </c>
       <c r="B53" t="str">
-        <f>LEFT(A53, 2)</f>
+        <f t="shared" si="9"/>
         <v>HO</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(B53, B$55:C$60, 2)</f>
+        <f t="shared" si="10"/>
         <v>Honda</v>
       </c>
       <c r="D53" t="str">
-        <f>MID(A53, 5, 3)</f>
+        <f t="shared" si="11"/>
         <v>ODY</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(D53, E$55:F$65, 2)</f>
+        <f t="shared" si="12"/>
         <v>Odyssey</v>
       </c>
       <c r="F53" t="str">
-        <f>MID(A53, 3, 2)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G53">
-        <f>IF(23-F53 &lt; 0, 100 - F53 + 23, 23 - F53)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H53">
         <v>3708.1</v>
       </c>
       <c r="I53">
-        <f>H53 / G53</f>
+        <f t="shared" si="15"/>
         <v>412.01111111111112</v>
       </c>
       <c r="J53" t="s">
@@ -9354,15 +9379,15 @@
         <v>100000</v>
       </c>
       <c r="M53" t="str">
-        <f>IF(H53 &lt; L53, "Y", "N")</f>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N53" t="str">
-        <f>CONCATENATE(B53,F53,D53,UPPER(LEFT(J53,3)),RIGHT(A53,3))</f>
+        <f t="shared" si="17"/>
         <v>HO14ODYBLA041</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="B55" t="s">
         <v>156</v>
       </c>
@@ -9376,7 +9401,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="B56" t="s">
         <v>162</v>
       </c>
@@ -9390,7 +9415,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="B57" t="s">
         <v>161</v>
       </c>
@@ -9404,7 +9429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -9418,7 +9443,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="B59" t="s">
         <v>158</v>
       </c>
@@ -9432,7 +9457,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="B60" t="s">
         <v>159</v>
       </c>
@@ -9446,7 +9471,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="E61" t="s">
         <v>170</v>
       </c>
@@ -9454,7 +9479,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="E62" t="s">
         <v>175</v>
       </c>
@@ -9462,7 +9487,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="E63" t="s">
         <v>176</v>
       </c>
@@ -9470,7 +9495,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="E64" t="s">
         <v>177</v>
       </c>
@@ -9478,7 +9503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:6">
       <c r="E65" t="s">
         <v>178</v>
       </c>
